--- a/North Spine Canteen Details (New).xlsx
+++ b/North Spine Canteen Details (New).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NTU\CZ1003 Intro to Computational Thinking\Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="240">
   <si>
     <t>s</t>
   </si>
@@ -524,21 +524,12 @@
     <t>Big Mac</t>
   </si>
   <si>
-    <t>$4.7</t>
-  </si>
-  <si>
     <t>The Original Angus</t>
   </si>
   <si>
-    <t>$5.7</t>
-  </si>
-  <si>
     <t>Double Fillet-O-Fish</t>
   </si>
   <si>
-    <t>$4.8</t>
-  </si>
-  <si>
     <t>Grilled Chicken Salad</t>
   </si>
   <si>
@@ -572,9 +563,6 @@
     <t>BBQ Beef With Egg</t>
   </si>
   <si>
-    <t>$4.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fillet-O-Fish </t>
   </si>
   <si>
@@ -669,6 +657,90 @@
   </si>
   <si>
     <t>$6.30</t>
+  </si>
+  <si>
+    <t>$4.80</t>
+  </si>
+  <si>
+    <t>$3.80</t>
+  </si>
+  <si>
+    <t>$4.50</t>
+  </si>
+  <si>
+    <t>$3.30</t>
+  </si>
+  <si>
+    <t>$3.00</t>
+  </si>
+  <si>
+    <t>$0.60</t>
+  </si>
+  <si>
+    <t>$2.40</t>
+  </si>
+  <si>
+    <t>$4.00</t>
+  </si>
+  <si>
+    <t>$2.30</t>
+  </si>
+  <si>
+    <t>$4.40</t>
+  </si>
+  <si>
+    <t>$3.70</t>
+  </si>
+  <si>
+    <t>$1.00</t>
+  </si>
+  <si>
+    <t>$2.00</t>
+  </si>
+  <si>
+    <t>$0.20</t>
+  </si>
+  <si>
+    <t>$0.90</t>
+  </si>
+  <si>
+    <t>$0.80</t>
+  </si>
+  <si>
+    <t>$0.70</t>
+  </si>
+  <si>
+    <t>$1.20</t>
+  </si>
+  <si>
+    <t>$0.50</t>
+  </si>
+  <si>
+    <t>$5.20</t>
+  </si>
+  <si>
+    <t>$2.80</t>
+  </si>
+  <si>
+    <t>$3.90</t>
+  </si>
+  <si>
+    <t>$4.90</t>
+  </si>
+  <si>
+    <t>$5.80</t>
+  </si>
+  <si>
+    <t>$6.80</t>
+  </si>
+  <si>
+    <t>$2.20</t>
+  </si>
+  <si>
+    <t>$4.70</t>
+  </si>
+  <si>
+    <t>$5.70</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1194,7 @@
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
@@ -1136,7 +1208,7 @@
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -1346,7 +1418,7 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
@@ -1360,7 +1432,7 @@
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
@@ -1374,7 +1446,7 @@
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -1388,7 +1460,7 @@
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1402,7 +1474,7 @@
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>60</v>
@@ -1416,7 +1488,7 @@
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -1430,7 +1502,7 @@
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -1444,7 +1516,7 @@
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>60</v>
@@ -1490,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1514,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
@@ -1529,11 +1601,11 @@
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
-        <v>4.8</v>
+      <c r="C2" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>16</v>
@@ -1548,11 +1620,11 @@
       <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11">
-        <v>3.8</v>
+      <c r="C3" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>16</v>
@@ -1567,11 +1639,11 @@
       <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11">
-        <v>3.8</v>
+      <c r="C4" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>16</v>
@@ -1586,11 +1658,11 @@
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="11">
-        <v>4.8</v>
+      <c r="C5" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>16</v>
@@ -1605,11 +1677,11 @@
       <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
-        <v>3.8</v>
+      <c r="C6" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>16</v>
@@ -1624,11 +1696,11 @@
       <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
-        <v>3.8</v>
+      <c r="C7" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>16</v>
@@ -1643,11 +1715,11 @@
       <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11">
-        <v>3.8</v>
+      <c r="C8" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>16</v>
@@ -1662,11 +1734,11 @@
       <c r="B9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11">
-        <v>3.8</v>
+      <c r="C9" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>16</v>
@@ -1681,11 +1753,11 @@
       <c r="B10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11">
-        <v>3.8</v>
+      <c r="C10" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>16</v>
@@ -1700,11 +1772,11 @@
       <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11">
-        <v>4.5</v>
+      <c r="C11" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
@@ -1719,11 +1791,11 @@
       <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="11">
-        <v>4.2</v>
+      <c r="C12" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>16</v>
@@ -1738,11 +1810,11 @@
       <c r="B13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11">
-        <v>4.2</v>
+      <c r="C13" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>16</v>
@@ -1757,11 +1829,11 @@
       <c r="B14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
-        <v>4.2</v>
+      <c r="C14" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>16</v>
@@ -1776,11 +1848,11 @@
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11">
-        <v>4.2</v>
+      <c r="C15" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>16</v>
@@ -1795,11 +1867,11 @@
       <c r="B16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11">
-        <v>4.2</v>
+      <c r="C16" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>16</v>
@@ -1814,11 +1886,11 @@
       <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="11">
-        <v>4.8</v>
+      <c r="C17" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>16</v>
@@ -1833,11 +1905,11 @@
       <c r="B18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="11">
-        <v>3.3</v>
+      <c r="C18" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>16</v>
@@ -1852,11 +1924,11 @@
       <c r="B19" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="11">
-        <v>3.3</v>
+      <c r="C19" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>16</v>
@@ -1871,11 +1943,11 @@
       <c r="B20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11">
-        <v>3.3</v>
+      <c r="C20" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>16</v>
@@ -1890,11 +1962,11 @@
       <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="11">
-        <v>3.3</v>
+      <c r="C21" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>16</v>
@@ -1909,11 +1981,11 @@
       <c r="B22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="11">
-        <v>3.3</v>
+      <c r="C22" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>16</v>
@@ -1928,11 +2000,11 @@
       <c r="B23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="11">
-        <v>3.5</v>
+      <c r="C23" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>16</v>
@@ -1947,11 +2019,11 @@
       <c r="B24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="11">
-        <v>3.5</v>
+      <c r="C24" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>16</v>
@@ -1966,11 +2038,11 @@
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="11">
-        <v>3.5</v>
+      <c r="C25" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>16</v>
@@ -1985,11 +2057,11 @@
       <c r="B26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="11">
-        <v>3.5</v>
+      <c r="C26" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>16</v>
@@ -2004,11 +2076,11 @@
       <c r="B27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="11">
-        <v>3.5</v>
+      <c r="C27" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>16</v>
@@ -2023,11 +2095,11 @@
       <c r="B28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="11">
-        <v>3</v>
+      <c r="C28" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>16</v>
@@ -2042,11 +2114,11 @@
       <c r="B29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="11">
-        <v>4.5</v>
+      <c r="C29" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>16</v>
@@ -2061,11 +2133,11 @@
       <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="11">
-        <v>3</v>
+      <c r="C30" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>16</v>
@@ -2080,11 +2152,11 @@
       <c r="B31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="11">
-        <v>3</v>
+      <c r="C31" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>16</v>
@@ -2099,11 +2171,11 @@
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="11">
-        <v>3</v>
+      <c r="C32" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>16</v>
@@ -2118,11 +2190,11 @@
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="11">
-        <v>3</v>
+      <c r="C33" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>16</v>
@@ -2137,11 +2209,11 @@
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="11">
-        <v>0.6</v>
+      <c r="C34" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>16</v>
@@ -2156,11 +2228,11 @@
       <c r="B35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="11">
-        <v>0.6</v>
+      <c r="C35" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>16</v>
@@ -2170,16 +2242,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="11">
-        <v>3</v>
+      <c r="C36" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>16</v>
@@ -2189,16 +2261,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="11">
-        <v>3</v>
+      <c r="C37" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>16</v>
@@ -2208,16 +2280,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="11">
-        <v>3</v>
+      <c r="C38" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>16</v>
@@ -2227,16 +2299,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="11">
-        <v>3</v>
+      <c r="C39" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>16</v>
@@ -2246,16 +2318,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="11">
-        <v>3</v>
+      <c r="C40" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>16</v>
@@ -2265,16 +2337,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="11">
-        <v>3</v>
+      <c r="C41" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>16</v>
@@ -2284,16 +2356,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="11">
-        <v>3</v>
+      <c r="C42" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>16</v>
@@ -2303,16 +2375,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="11">
-        <v>3.5</v>
+      <c r="C43" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>16</v>
@@ -2322,16 +2394,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="11">
-        <v>3.5</v>
+      <c r="C44" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>16</v>
@@ -2341,16 +2413,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C45" s="11">
-        <v>3.8</v>
+      <c r="C45" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>16</v>
@@ -2360,16 +2432,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="11">
-        <v>3.5</v>
+      <c r="C46" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>16</v>
@@ -2379,16 +2451,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="11">
-        <v>3.5</v>
+      <c r="C47" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>16</v>
@@ -2403,11 +2475,11 @@
       <c r="B48" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="11">
-        <v>2.4</v>
+      <c r="C48" s="10" t="s">
+        <v>218</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>16</v>
@@ -2422,11 +2494,11 @@
       <c r="B49" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="11">
-        <v>4</v>
+      <c r="C49" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>16</v>
@@ -2441,11 +2513,11 @@
       <c r="B50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="11">
-        <v>2.2999999999999998</v>
+      <c r="C50" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>16</v>
@@ -2460,11 +2532,11 @@
       <c r="B51" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="11">
-        <v>4.4000000000000004</v>
+      <c r="C51" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>16</v>
@@ -2479,11 +2551,11 @@
       <c r="B52" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="11">
-        <v>3.7</v>
+      <c r="C52" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>16</v>
@@ -2498,11 +2570,11 @@
       <c r="B53" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="11">
-        <v>6.3</v>
+      <c r="C53" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>36</v>
@@ -2517,11 +2589,11 @@
       <c r="B54" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="11">
-        <v>4.8</v>
+      <c r="C54" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>36</v>
@@ -2536,11 +2608,11 @@
       <c r="B55" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="11">
-        <v>4.8</v>
+      <c r="C55" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>36</v>
@@ -2555,11 +2627,11 @@
       <c r="B56" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="11">
-        <v>4.8</v>
+      <c r="C56" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>36</v>
@@ -2574,11 +2646,11 @@
       <c r="B57" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="11">
-        <v>4.3</v>
+      <c r="C57" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>36</v>
@@ -2593,11 +2665,11 @@
       <c r="B58" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="11">
-        <v>4.8</v>
+      <c r="C58" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>36</v>
@@ -2612,11 +2684,11 @@
       <c r="B59" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="11">
-        <v>4.8</v>
+      <c r="C59" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>36</v>
@@ -2631,11 +2703,11 @@
       <c r="B60" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="11">
-        <v>1</v>
+      <c r="C60" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>89</v>
@@ -2650,11 +2722,11 @@
       <c r="B61" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="11">
-        <v>1</v>
+      <c r="C61" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>89</v>
@@ -2669,11 +2741,11 @@
       <c r="B62" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="11">
-        <v>2</v>
+      <c r="C62" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>89</v>
@@ -2688,11 +2760,11 @@
       <c r="B63" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="11">
-        <v>1</v>
+      <c r="C63" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>38</v>
@@ -2707,11 +2779,11 @@
       <c r="B64" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="11">
-        <v>0.2</v>
+      <c r="C64" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>38</v>
@@ -2726,11 +2798,11 @@
       <c r="B65" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="11">
-        <v>0.9</v>
+      <c r="C65" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>38</v>
@@ -2745,11 +2817,11 @@
       <c r="B66" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="11">
-        <v>1</v>
+      <c r="C66" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>38</v>
@@ -2764,11 +2836,11 @@
       <c r="B67" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="11">
-        <v>0.8</v>
+      <c r="C67" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>38</v>
@@ -2783,11 +2855,11 @@
       <c r="B68" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="11">
-        <v>0.8</v>
+      <c r="C68" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>38</v>
@@ -2802,11 +2874,11 @@
       <c r="B69" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="11">
-        <v>0.8</v>
+      <c r="C69" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>38</v>
@@ -2821,11 +2893,11 @@
       <c r="B70" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="11">
-        <v>0.8</v>
+      <c r="C70" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>38</v>
@@ -2840,11 +2912,11 @@
       <c r="B71" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="11">
-        <v>0.7</v>
+      <c r="C71" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>38</v>
@@ -2859,11 +2931,11 @@
       <c r="B72" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="11">
-        <v>0.7</v>
+      <c r="C72" s="10" t="s">
+        <v>228</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>38</v>
@@ -2878,11 +2950,11 @@
       <c r="B73" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="11">
-        <v>0.6</v>
+      <c r="C73" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>38</v>
@@ -2897,11 +2969,11 @@
       <c r="B74" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="11">
-        <v>0.6</v>
+      <c r="C74" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>38</v>
@@ -2916,11 +2988,11 @@
       <c r="B75" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="11">
-        <v>4</v>
+      <c r="C75" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>16</v>
@@ -2935,11 +3007,11 @@
       <c r="B76" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="11">
-        <v>4</v>
+      <c r="C76" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>16</v>
@@ -2954,11 +3026,11 @@
       <c r="B77" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="11">
-        <v>4</v>
+      <c r="C77" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>16</v>
@@ -2973,11 +3045,11 @@
       <c r="B78" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="11">
-        <v>4</v>
+      <c r="C78" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>16</v>
@@ -2992,11 +3064,11 @@
       <c r="B79" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="11">
-        <v>3.8</v>
+      <c r="C79" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>16</v>
@@ -3011,11 +3083,11 @@
       <c r="B80" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="11">
-        <v>3.8</v>
+      <c r="C80" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>16</v>
@@ -3030,11 +3102,11 @@
       <c r="B81" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="11">
-        <v>1.2</v>
+      <c r="C81" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>16</v>
@@ -3049,11 +3121,11 @@
       <c r="B82" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C82" s="11">
-        <v>1.2</v>
+      <c r="C82" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>16</v>
@@ -3068,11 +3140,11 @@
       <c r="B83" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="11">
-        <v>0.5</v>
+      <c r="C83" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>16</v>
@@ -3087,11 +3159,11 @@
       <c r="B84" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C84" s="11">
-        <v>4.2</v>
+      <c r="C84" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>16</v>
@@ -3106,11 +3178,11 @@
       <c r="B85" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="11">
-        <v>4</v>
+      <c r="C85" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>42</v>
@@ -3125,11 +3197,11 @@
       <c r="B86" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="11">
-        <v>4</v>
+      <c r="C86" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>42</v>
@@ -3144,11 +3216,11 @@
       <c r="B87" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="11">
-        <v>5.2</v>
+      <c r="C87" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>42</v>
@@ -3163,11 +3235,11 @@
       <c r="B88" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="11">
-        <v>4.2</v>
+      <c r="C88" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>42</v>
@@ -3182,11 +3254,11 @@
       <c r="B89" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C89" s="11">
-        <v>3.8</v>
+      <c r="C89" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>42</v>
@@ -3201,11 +3273,11 @@
       <c r="B90" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="11">
-        <v>4</v>
+      <c r="C90" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>42</v>
@@ -3220,11 +3292,11 @@
       <c r="B91" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C91" s="11">
-        <v>2.8</v>
+      <c r="C91" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>42</v>
@@ -3239,11 +3311,11 @@
       <c r="B92" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="11">
-        <v>2.8</v>
+      <c r="C92" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>42</v>
@@ -3258,11 +3330,11 @@
       <c r="B93" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="11">
-        <v>2.8</v>
+      <c r="C93" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>42</v>
@@ -3277,11 +3349,11 @@
       <c r="B94" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="11">
-        <v>2.8</v>
+      <c r="C94" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>42</v>
@@ -3296,11 +3368,11 @@
       <c r="B95" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="11">
-        <v>3</v>
+      <c r="C95" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>45</v>
@@ -3315,11 +3387,11 @@
       <c r="B96" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C96" s="11">
-        <v>3</v>
+      <c r="C96" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>45</v>
@@ -3334,11 +3406,11 @@
       <c r="B97" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="11">
-        <v>3</v>
+      <c r="C97" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>45</v>
@@ -3353,11 +3425,11 @@
       <c r="B98" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C98" s="11">
-        <v>2.8</v>
+      <c r="C98" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>45</v>
@@ -3372,11 +3444,11 @@
       <c r="B99" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="11">
-        <v>3</v>
+      <c r="C99" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>45</v>
@@ -3391,11 +3463,11 @@
       <c r="B100" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C100" s="11">
-        <v>2.8</v>
+      <c r="C100" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>45</v>
@@ -3410,11 +3482,11 @@
       <c r="B101" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="11">
-        <v>2.8</v>
+      <c r="C101" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>45</v>
@@ -3429,11 +3501,11 @@
       <c r="B102" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C102" s="11">
-        <v>3.9</v>
+      <c r="C102" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>48</v>
@@ -3448,11 +3520,11 @@
       <c r="B103" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C103" s="11">
-        <v>4.5</v>
+      <c r="C103" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>48</v>
@@ -3467,11 +3539,11 @@
       <c r="B104" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="11">
-        <v>3.9</v>
+      <c r="C104" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>48</v>
@@ -3486,11 +3558,11 @@
       <c r="B105" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="11">
-        <v>4.5</v>
+      <c r="C105" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>48</v>
@@ -3505,11 +3577,11 @@
       <c r="B106" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="11">
-        <v>3.9</v>
+      <c r="C106" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>48</v>
@@ -3524,11 +3596,11 @@
       <c r="B107" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="11">
-        <v>4.9000000000000004</v>
+      <c r="C107" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>48</v>
@@ -3543,11 +3615,11 @@
       <c r="B108" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="11">
-        <v>3.9</v>
+      <c r="C108" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>48</v>
@@ -3562,11 +3634,11 @@
       <c r="B109" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="11">
-        <v>4.9000000000000004</v>
+      <c r="C109" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>48</v>
@@ -3581,11 +3653,11 @@
       <c r="B110" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="11">
-        <v>3.9</v>
+      <c r="C110" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>48</v>
@@ -3600,11 +3672,11 @@
       <c r="B111" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="11">
-        <v>4.9000000000000004</v>
+      <c r="C111" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>48</v>
@@ -3614,16 +3686,16 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="11">
-        <v>4.8</v>
+      <c r="C112" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>36</v>
@@ -3633,16 +3705,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="11">
-        <v>4.8</v>
+      <c r="C113" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>36</v>
@@ -3652,16 +3724,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="11">
-        <v>4.8</v>
+      <c r="C114" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>36</v>
@@ -3671,16 +3743,16 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="11">
-        <v>4.8</v>
+      <c r="C115" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>36</v>
@@ -3690,16 +3762,16 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C116" s="11">
-        <v>4.8</v>
+      <c r="C116" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>36</v>
@@ -3709,16 +3781,16 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C117" s="11">
-        <v>4.8</v>
+      <c r="C117" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>36</v>
@@ -3728,16 +3800,16 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C118" s="11">
-        <v>4.8</v>
+      <c r="C118" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>36</v>
@@ -3747,16 +3819,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B119" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="11">
-        <v>4.8</v>
+      <c r="C119" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>36</v>
@@ -3766,16 +3838,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B120" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C120" s="11">
-        <v>6.5</v>
+      <c r="C120" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>36</v>
@@ -3785,16 +3857,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="11">
-        <v>5.8</v>
+      <c r="C121" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>36</v>
@@ -3804,16 +3876,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="11">
-        <v>6.8</v>
+      <c r="C122" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>36</v>
@@ -3823,16 +3895,16 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="11">
-        <v>2.2000000000000002</v>
+      <c r="C123" s="10" t="s">
+        <v>237</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>36</v>
@@ -3842,16 +3914,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C124" s="11">
-        <v>2</v>
+      <c r="C124" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>36</v>
@@ -3861,16 +3933,16 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="11">
-        <v>2</v>
+      <c r="C125" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>36</v>
@@ -3880,16 +3952,16 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C126" s="11">
-        <v>0.5</v>
+      <c r="C126" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>36</v>
@@ -3899,16 +3971,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B127" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>13</v>
@@ -3918,16 +3990,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>13</v>
@@ -3937,16 +4009,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>153</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>13</v>
@@ -3956,16 +4028,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>13</v>
@@ -3975,16 +4047,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>155</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>13</v>
@@ -3994,16 +4066,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>156</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>13</v>
@@ -4013,16 +4085,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>13</v>
@@ -4032,16 +4104,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>13</v>
@@ -4051,7 +4123,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B135" s="12" t="s">
         <v>158</v>
@@ -4060,7 +4132,7 @@
         <v>159</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>13</v>
@@ -4070,16 +4142,16 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>13</v>
@@ -4089,16 +4161,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>13</v>
@@ -4108,16 +4180,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>13</v>
@@ -4127,7 +4199,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>160</v>
@@ -4136,7 +4208,7 @@
         <v>154</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>13</v>
@@ -4146,7 +4218,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B140" s="12" t="s">
         <v>161</v>
@@ -4155,7 +4227,7 @@
         <v>154</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>13</v>
@@ -4165,13 +4237,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>89</v>
@@ -4184,10 +4256,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C142" s="17" t="s">
         <v>155</v>
@@ -4203,10 +4275,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>155</v>
@@ -4222,16 +4294,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>13</v>
@@ -4241,16 +4313,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>13</v>
@@ -4260,16 +4332,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>13</v>
@@ -4279,16 +4351,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>13</v>
@@ -4298,16 +4370,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>13</v>
@@ -4317,7 +4389,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B149" s="12" t="s">
         <v>162</v>
@@ -4326,7 +4398,7 @@
         <v>163</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>13</v>
@@ -4336,7 +4408,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B150" s="12" t="s">
         <v>164</v>
@@ -4345,7 +4417,7 @@
         <v>165</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>13</v>
@@ -4355,16 +4427,16 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B151" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>13</v>
@@ -4374,16 +4446,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>13</v>
@@ -4393,16 +4465,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>13</v>
@@ -4412,16 +4484,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>13</v>
@@ -4431,16 +4503,16 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>13</v>
@@ -4450,16 +4522,16 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>13</v>
@@ -4469,10 +4541,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>152</v>
@@ -4488,13 +4560,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>89</v>
@@ -4507,13 +4579,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>89</v>
@@ -4526,13 +4598,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>89</v>
@@ -5127,6 +5199,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C1:C1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5162,12 +5237,12 @@
         <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5184,7 +5259,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -5244,7 +5319,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -5364,7 +5439,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>36</v>
